--- a/contratos/contratos-10-2021.xlsx
+++ b/contratos/contratos-10-2021.xlsx
@@ -55,7 +55,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>1.620,00</t>
+    <t>1620.00</t>
   </si>
 </sst>
 </file>
